--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,26 +662,26 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,21 +762,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,26 +787,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-21</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,21 +937,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,26 +987,26 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1062,21 +1062,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1087,21 +1087,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1112,46 +1112,46 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1162,21 +1162,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1187,21 +1187,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1212,21 +1212,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Compass abnormal Solution:</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>4-31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1321,90 +1321,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>6</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>31-35</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>6</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4-31</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>6</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,26 +662,26 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,21 +762,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,26 +787,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,21 +937,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,26 +987,26 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1062,21 +1062,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1087,21 +1087,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1112,46 +1112,46 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1162,21 +1162,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1187,21 +1187,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1212,21 +1212,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution:</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2.</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4-31</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1321,15 +1321,90 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Move away from sources of interference before attempting flight</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22-30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4-31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>32-35</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>False</t>
         </is>
